--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ForDevelop\pleiades2022\work\DragonBattleRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F799F9-B1D4-446B-AE6B-9602BF7A725A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5E696-6C91-40BC-8D1A-5977D0C8EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>HP</t>
     <phoneticPr fontId="1"/>
@@ -108,6 +108,61 @@
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法リスト</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特技リスト</t>
+    <rPh sb="0" eb="2">
+      <t>トクギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭防具</t>
+    <rPh sb="0" eb="1">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ボウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体防具</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ボウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾防具</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ボウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセサリー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:A14"/>
+  <dimension ref="A3:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -504,6 +559,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基本設計書.xlsx
+++ b/基本設計書.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ForDevelop\pleiades2022\work\DragonBattleRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5E696-6C91-40BC-8D1A-5977D0C8EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68EDDBD-BE55-4FDC-8FCC-8792634CFA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="キャラクター" sheetId="1" r:id="rId1"/>
+    <sheet name="機能" sheetId="3" r:id="rId1"/>
+    <sheet name="状態異常" sheetId="4" r:id="rId2"/>
+    <sheet name="ターン処理順" sheetId="6" r:id="rId3"/>
+    <sheet name="補助状態" sheetId="5" r:id="rId4"/>
+    <sheet name="キャラクター" sheetId="1" r:id="rId5"/>
+    <sheet name="HP" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>HP</t>
     <phoneticPr fontId="1"/>
@@ -163,6 +168,520 @@
   </si>
   <si>
     <t>アクセサリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たたかう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特技</t>
+    <rPh sb="0" eb="2">
+      <t>トクギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆状態異常</t>
+    <rPh sb="1" eb="5">
+      <t>ジョウタイイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘不能</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠り</t>
+    <rPh sb="0" eb="1">
+      <t>ネム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻痺</t>
+    <rPh sb="0" eb="2">
+      <t>マヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混乱</t>
+    <rPh sb="0" eb="2">
+      <t>コンラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幻惑</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆補助</t>
+    <rPh sb="1" eb="3">
+      <t>ホジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御作用</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイキルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フバーハ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジックバリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃対象</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助対象</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蘇生対象</t>
+    <rPh sb="0" eb="2">
+      <t>ソセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘不能</t>
+    <rPh sb="0" eb="4">
+      <t>セントウフノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎ターンダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動不能</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動不能、物理ダメージで状態解除、ターン経過で状態解除</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昏睡</t>
+    <rPh sb="0" eb="2">
+      <t>コンスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動不能、物理ダメージで状態解除（確率）、ターン経過で状態解除</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理攻撃の命中率低下</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>メイチュウリツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動不能、独自パターン化、物理ダメージで状態解除、ターン経過で状態解除</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力倍化、重ね掛け不可</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクルト、ルカニ、防御アップダウン、最大値は防御の2倍、最低値はゼロ</t>
+    <rPh sb="9" eb="11">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>サイテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>息のダメージ半分</t>
+    <rPh sb="0" eb="1">
+      <t>イキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復と攻撃呪文のダメージ半分</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ターンで必ず解除、ダメージ半分、状態異常無効、行動不可</t>
+    <rPh sb="5" eb="6">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動選択</t>
+    <rPh sb="0" eb="4">
+      <t>コウドウセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠り、麻痺、混乱、戦闘不能の行動不可処理</t>
+    <rPh sb="0" eb="1">
+      <t>ネム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コンラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御の処理</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン開始時の特技や魔法、装備効果の処理</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トクギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各キャラクターの行動</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘不能判定、行動不能判定</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>フノウハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン終了の処理</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,10 +1006,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C28BEF-1E48-4422-96C7-D4F4503A8DAF}">
+  <dimension ref="A4:A24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D561743E-6A96-4FCE-9C75-95BB096E36AD}">
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B5F9C9-3FEE-411C-8E07-9E53E3B56BA2}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE88CEC-67C4-4A5A-9C7A-987AD58838F3}">
+  <dimension ref="A3:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -598,4 +1509,28 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450C167B-732F-41ED-9A70-03A47336A36D}">
+  <dimension ref="A3:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>